--- a/main/y_tests vs Predicted.xlsx
+++ b/main/y_tests vs Predicted.xlsx
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -2004,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2378,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2763,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2818,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
